--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="請求書" sheetId="1" r:id="rId1"/>
     <sheet name="商品リスト" sheetId="2" r:id="rId2"/>
+    <sheet name="見積書" sheetId="3" r:id="rId3"/>
+    <sheet name="納品書" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>様</t>
     <rPh sb="0" eb="1">
@@ -99,13 +101,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>普通 XXXXXXX</t>
-    <rPh sb="0" eb="2">
-      <t>フツウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>小計</t>
     <rPh sb="0" eb="2">
       <t>ショウケイ</t>
@@ -228,6 +223,129 @@
   </si>
   <si>
     <t>〒141-0000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>普通 xxxxxxx</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見 積 書</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見積番号：</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品場所：</t>
+    <rPh sb="0" eb="4">
+      <t>ノウヒンバショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効期限：</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発行日から30日</t>
+    <rPh sb="0" eb="3">
+      <t>ハッコウビ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納 品 書</t>
+    <rPh sb="0" eb="1">
+      <t>オサメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品番号：</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>摘要：</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>毎度ありがとうございます。</t>
+    <rPh sb="0" eb="2">
+      <t>マイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下の通り、納品いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ノウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記の通り、お見積り申し上げます。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミツモ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -235,7 +353,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="#,##0&quot;円&quot;"/>
+    <numFmt numFmtId="179" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +394,26 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +432,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4C220"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD577"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -325,6 +489,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -332,7 +505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,9 +514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,32 +522,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -386,6 +615,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFBD577"/>
+      <color rgb="FFF4C220"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -698,165 +933,248 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.77734375" customWidth="1"/>
-    <col min="3" max="5" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="23">
+        <v>44963</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="E5" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="6" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="39">
         <v>2</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="19">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="15"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="6" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="19">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="15"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="6" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="15"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="6" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="15"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="6" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="15"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="6" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19">
+        <f>(SUM(E11:E16))</f>
+        <v>0</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="20">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="15"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="21">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="11">
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:B4"/>
@@ -866,6 +1184,8 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -877,7 +1197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -894,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -902,9 +1222,9 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="14">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10">
         <v>15900</v>
       </c>
     </row>
@@ -913,9 +1233,9 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="14">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10">
         <v>19900</v>
       </c>
     </row>
@@ -924,9 +1244,9 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="14">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10">
         <v>49400</v>
       </c>
     </row>
@@ -935,9 +1255,9 @@
         <v>2001</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="14">
+        <v>19</v>
+      </c>
+      <c r="C5" s="10">
         <v>9800</v>
       </c>
     </row>
@@ -946,9 +1266,9 @@
         <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="14">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10">
         <v>14000</v>
       </c>
     </row>
@@ -957,9 +1277,9 @@
         <v>2003</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="14">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10">
         <v>25400</v>
       </c>
     </row>
@@ -968,9 +1288,9 @@
         <v>3001</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="14">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10">
         <v>12300</v>
       </c>
     </row>
@@ -979,9 +1299,9 @@
         <v>3002</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="14">
+        <v>23</v>
+      </c>
+      <c r="C9" s="10">
         <v>26700</v>
       </c>
     </row>
@@ -990,9 +1310,9 @@
         <v>3003</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="14">
+        <v>24</v>
+      </c>
+      <c r="C10" s="10">
         <v>3500</v>
       </c>
     </row>
@@ -1003,4 +1323,520 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="D3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="23">
+        <v>44963</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="19">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="19">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="19">
+        <f>(SUM(E11:E16))</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="20">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="21">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="23.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="23">
+        <v>44963</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6" t="str">
+        <f>IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="19">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6" t="str">
+        <f>IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="19">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6" t="str">
+        <f>IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6" t="str">
+        <f>IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6" t="str">
+        <f>IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="str">
+        <f>IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="11" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="19">
+        <f>(SUM(E11:E16))</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="C18" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="20">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="21">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>